--- a/Container/Data/WaffenMonster.xlsx
+++ b/Container/Data/WaffenMonster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B8CA81-C61C-4087-AC26-EE0C1C3B8701}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF86A67-90B8-44D9-8017-591872D99CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7170" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="WerwolfBisss" sheetId="2" r:id="rId3"/>
     <sheet name="Klauen" sheetId="3" r:id="rId4"/>
     <sheet name="Giftklauen" sheetId="5" r:id="rId5"/>
+    <sheet name="Skroganstachel" sheetId="6" r:id="rId6"/>
+    <sheet name="Skorpionscheren" sheetId="7" r:id="rId7"/>
+    <sheet name="Großeraufspießerbiss" sheetId="8" r:id="rId8"/>
+    <sheet name="Großeraufspießerdorn" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="42">
   <si>
     <t>Attribute</t>
   </si>
@@ -136,6 +140,33 @@
   </si>
   <si>
     <t>dauer=none</t>
+  </si>
+  <si>
+    <t>Stachel</t>
+  </si>
+  <si>
+    <t>Monsterwaffe</t>
+  </si>
+  <si>
+    <t>Groß</t>
+  </si>
+  <si>
+    <t>Scheren</t>
+  </si>
+  <si>
+    <t>Skorpionscheren</t>
+  </si>
+  <si>
+    <t>Wurfwert</t>
+  </si>
+  <si>
+    <t>Mittel</t>
+  </si>
+  <si>
+    <t>Speer</t>
+  </si>
+  <si>
+    <t>Großeraufspießerdorn</t>
   </si>
 </sst>
 </file>
@@ -455,13 +486,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77E697D-F813-427B-854F-846252AAE76D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -469,7 +500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -477,7 +508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -492,18 +523,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.41796875" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -519,7 +550,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -527,7 +558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -535,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -543,7 +574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -551,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -559,7 +590,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -567,7 +598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -575,7 +606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -583,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -591,7 +622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -599,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -607,59 +638,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>3</v>
       </c>
     </row>
@@ -670,15 +709,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7E4868-8F07-471C-855A-5471E7E1A947}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -694,7 +733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -702,7 +741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -710,7 +749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -718,7 +757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -726,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -734,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -742,7 +781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -750,7 +789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -758,7 +797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -766,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -774,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -782,59 +821,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>3</v>
       </c>
     </row>
@@ -845,15 +892,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92C9EE9-12E7-46CB-8D48-C2700B6567BA}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A1:B23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -861,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -869,7 +916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -877,7 +924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -885,7 +932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -893,7 +940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -901,7 +948,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -909,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -917,7 +964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -925,7 +972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -933,7 +980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -941,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -949,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -957,59 +1004,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0</v>
       </c>
     </row>
@@ -1020,15 +1075,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D8A409-9519-4683-A4F5-40E0F5AD0240}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +1123,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1131,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1084,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1155,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1108,7 +1163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1124,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1132,60 +1187,809 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{770C2227-EA3E-4BA3-827B-601EF4F74B80}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A1:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B37752-0E23-450D-B889-566A512C9575}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A1:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715A7F32-CBBF-4092-A17A-054B19340258}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
       <c r="B15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7EDE6F-9DAE-4CFC-AD02-E273CB93C2DB}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B17">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B19">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>5</v>
+      <c r="B21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Container/Data/WaffenMonster.xlsx
+++ b/Container/Data/WaffenMonster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andi\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF86A67-90B8-44D9-8017-591872D99CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CADB1B3-FFBA-4524-A3BA-FE67B90424FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
@@ -22,8 +22,10 @@
     <sheet name="Skorpionscheren" sheetId="7" r:id="rId7"/>
     <sheet name="Großeraufspießerbiss" sheetId="8" r:id="rId8"/>
     <sheet name="Großeraufspießerdorn" sheetId="9" r:id="rId9"/>
+    <sheet name="Ghastkrallen" sheetId="10" r:id="rId10"/>
+    <sheet name="Biss" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="45">
   <si>
     <t>Attribute</t>
   </si>
@@ -167,6 +169,15 @@
   </si>
   <si>
     <t>Großeraufspießerdorn</t>
+  </si>
+  <si>
+    <t>Krallen</t>
+  </si>
+  <si>
+    <t>Ghastkrallen</t>
+  </si>
+  <si>
+    <t>Allgemein</t>
   </si>
 </sst>
 </file>
@@ -486,13 +497,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77E697D-F813-427B-854F-846252AAE76D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -500,7 +511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -508,12 +519,378 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146D7FD-7D26-40A9-846C-0AA038E5C87A}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EF6E4A-16FF-4EE0-8E77-B796DB02B57D}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -529,12 +906,12 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -550,7 +927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -558,7 +935,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -566,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -574,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -582,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -590,7 +967,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -598,7 +975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -606,7 +983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -614,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -622,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -630,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -638,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -646,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -654,7 +1031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -662,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -670,7 +1047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -678,7 +1055,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -686,7 +1063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -694,7 +1071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -715,9 +1092,9 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -733,7 +1110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -741,7 +1118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -749,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -757,7 +1134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -765,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -773,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -781,7 +1158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -789,7 +1166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -797,7 +1174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -805,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -813,7 +1190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -821,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -829,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -837,7 +1214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -845,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -853,7 +1230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -861,7 +1238,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -869,7 +1246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -877,7 +1254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -898,9 +1275,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -916,7 +1293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -924,7 +1301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -932,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -940,7 +1317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -948,7 +1325,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -956,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -964,7 +1341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -972,7 +1349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -980,7 +1357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -988,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -996,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1004,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1012,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1020,7 +1397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1028,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1036,7 +1413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1044,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1052,7 +1429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1060,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1081,9 +1458,9 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1099,7 +1476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1107,7 +1484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1131,7 +1508,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1155,7 +1532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1163,7 +1540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1179,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1195,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1203,7 +1580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1211,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1219,7 +1596,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1604,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1235,7 +1612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1243,7 +1620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1264,12 +1641,12 @@
       <selection activeCell="A21" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1285,7 +1662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1293,7 +1670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1309,7 +1686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1317,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +1702,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +1710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1341,7 +1718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1349,7 +1726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1357,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1365,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1373,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1381,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1389,7 +1766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1397,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1405,7 +1782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1413,7 +1790,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1421,7 +1798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1429,7 +1806,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1450,12 +1827,12 @@
       <selection activeCell="A21" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1471,7 +1848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1487,7 +1864,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1495,7 +1872,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1880,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1888,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1519,7 +1896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1527,7 +1904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1535,7 +1912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1543,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1567,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1575,7 +1952,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1583,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1591,7 +1968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1599,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1607,7 +1984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1615,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1636,12 +2013,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1649,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1657,7 +2034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1665,7 +2042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1673,7 +2050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1681,7 +2058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1689,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1697,7 +2074,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1705,7 +2082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1713,7 +2090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1721,7 +2098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1729,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1737,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1745,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1753,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1761,7 +2138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1769,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1777,7 +2154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1785,7 +2162,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1793,7 +2170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1801,7 +2178,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1822,9 +2199,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1832,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1840,7 +2217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1848,7 +2225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1856,7 +2233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1864,7 +2241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +2249,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1880,7 +2257,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +2265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1896,7 +2273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1904,7 +2281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1920,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1928,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1936,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1944,7 +2321,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1952,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1960,7 +2337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1968,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1976,7 +2353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1984,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
